--- a/duoyue/多阅数据库/多阅数据库数据字典.xlsx
+++ b/duoyue/多阅数据库/多阅数据库数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="212">
   <si>
     <t>表名</t>
   </si>
@@ -597,7 +597,10 @@
     <t>图书馆id</t>
   </si>
   <si>
-    <t>书籍id</t>
+    <t>bookbox</t>
+  </si>
+  <si>
+    <t>书箱编号</t>
   </si>
   <si>
     <t>活动id</t>
@@ -628,6 +631,27 @@
   </si>
   <si>
     <t>儿童调研id</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>社区名</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>n_people</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>是否有阅览室</t>
   </si>
 </sst>
 </file>
@@ -636,9 +660,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -664,22 +688,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +710,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,8 +724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,9 +742,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,34 +764,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,9 +786,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,13 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,13 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +899,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,55 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,31 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,17 +1054,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1056,17 +1069,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,6 +1104,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1110,11 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,133 +1171,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,7 +1380,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1637,7 +1661,7 @@
   <sheetPr/>
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
@@ -3424,10 +3448,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5555555555556" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -4325,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>94</v>
@@ -4371,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4531,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4718,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>185</v>
@@ -4763,10 +4787,10 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4828,7 +4852,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4967,7 +4991,7 @@
         <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5000,10 +5024,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>13</v>
@@ -5115,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5263,7 +5287,7 @@
         <v>11</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5415,6 +5439,165 @@
         <v>13</v>
       </c>
       <c r="D161" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D169" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="1">
         <v>255</v>
       </c>
     </row>
